--- a/ckack3/착착착 수정 List _확인.xlsx
+++ b/ckack3/착착착 수정 List _확인.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoSet10\public_html\job\ckack3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="기타" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">작업목록!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">작업목록!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="141">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입점안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,10 +400,6 @@
   </si>
   <si>
     <t>PC와 동일하게 바로 검색 결과 나타나게?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m/customercenter/cscenter_notice2.asp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,14 +535,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오팀</t>
+    <t>6/7 ~ 6/8 작업 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배너 확정 뒤 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax 추가 시, 롤링 오류
+현재 하드코딩으로 박혀있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 방법 설명 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 작업해요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 작업해요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명에 사회적 유형 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 링크,
+로그인&amp;로그아웃 상태변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입점신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 위치어디?
+GNB는 노출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +812,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,7 +830,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1140,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1153,17 +1242,18 @@
     <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="49.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="26.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1178,13 +1268,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1202,13 +1295,14 @@
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1226,13 +1320,14 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1250,13 +1345,14 @@
         <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1274,209 +1370,235 @@
         <v>47</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+        <v>86</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="H13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1484,23 +1606,24 @@
         <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1514,17 +1637,20 @@
         <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1535,64 +1661,79 @@
         <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1600,21 +1741,26 @@
         <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1622,21 +1768,24 @@
         <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1644,21 +1793,24 @@
         <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1666,45 +1818,49 @@
         <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1717,18 +1873,19 @@
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1739,18 +1896,23 @@
         <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1761,18 +1923,23 @@
         <v>51</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1783,36 +1950,48 @@
         <v>51</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+        <v>89</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1820,43 +1999,43 @@
         <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1864,43 +2043,49 @@
         <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+        <v>89</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1908,266 +2093,332 @@
         <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="G34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="G35" s="8"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="E37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="G37" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="18"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>40</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="E45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>41</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="F46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>42</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="4"/>
+      <c r="G47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G45"/>
-  <mergeCells count="1">
-    <mergeCell ref="G35:G36"/>
+  <autoFilter ref="A1:G47"/>
+  <mergeCells count="3">
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2194,28 +2445,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,13 +2474,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2237,13 +2488,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2251,13 +2502,13 @@
         <v>34</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2265,13 +2516,13 @@
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,22 +2530,22 @@
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2326,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2336,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2344,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2352,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/ckack3/착착착 수정 List _확인.xlsx
+++ b/ckack3/착착착 수정 List _확인.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,11 +602,6 @@
   </si>
   <si>
     <t>입점신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀 위치어디?
-GNB는 노출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,12 +810,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,27 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,7 +1004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,7 +1039,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1386,21 +1381,21 @@
       <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1573,7 +1568,7 @@
       <c r="H13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1756,7 +1751,7 @@
       <c r="H20" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="17" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1844,21 +1839,21 @@
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -1984,12 +1979,10 @@
       <c r="G29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="25" t="s">
-        <v>140</v>
-      </c>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -2011,8 +2004,8 @@
       <c r="G30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -2153,7 +2146,9 @@
         <v>61</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2175,7 +2170,7 @@
       <c r="F37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H37" s="4"/>
@@ -2200,7 +2195,7 @@
       <c r="F38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
@@ -2266,7 +2261,9 @@
       <c r="G41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2287,7 +2284,9 @@
       <c r="G42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2308,7 +2307,9 @@
       <c r="G43" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2333,7 +2334,9 @@
       <c r="G44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2450,10 +2453,10 @@
       <c r="B1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -2540,12 +2543,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
